--- a/trunk/src/ontology/immunology/Complexes.xlsx
+++ b/trunk/src/ontology/immunology/Complexes.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="-40" windowWidth="24800" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="21360" windowHeight="14200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$100</definedName>
   </definedNames>
-  <calcPr calcId="130406" concurrentCalc="0"/>
+  <calcPr calcId="130406" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,557 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="207">
+  <si>
+    <t>tf6pelrip1ububtak1tab1tab2tab3IkBkp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6rip1ububtak1tab1tab2tab3IkBk where IkBk is phosphorylated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6pelrip1ububIKbKp</t>
+  </si>
+  <si>
+    <t>tf6pelrip1ubub+IKbK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirap+Myd88s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tram-sarm</t>
+  </si>
+  <si>
+    <t>rlps2-tram+SARM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4IRKM</t>
+  </si>
+  <si>
+    <t>rlps-tmIRK4+IRKM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tirappSOCS1</t>
+  </si>
+  <si>
+    <t>tirapp+SOCS1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirapp48ubSOCS1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirappSOCS1 where tirapp is 48 ubiquitinated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tirapp48ub26S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirapp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirap where tirap is phosphorylated on Tyr 86 or Tyr 106 or Tyr159</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirappSOCS1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirapp+SOCS1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tirapp48ub+26S where tirapp48ub bound to 26Srs4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3+MKK3p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4IRK1p where IRK1 is phosphorylated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tt-trf3-tank63ub</t>
+  </si>
+  <si>
+    <t>rlps2-tt-trf3+TANKK63ub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1tankk63ubIKKe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBK1-Tank-IKKe</t>
+  </si>
+  <si>
+    <t>TBK1+tank+IKKe</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3MKK7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3+MKK7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pp65IMPalpha4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pp65+IMPalpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3MKK6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3+MKK6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+  </si>
+  <si>
+    <t>MKK3pmapk1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK3p+MAPK1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK6pmapk1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK6p +MAPK1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK3pmapk1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK3p+MAPK1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK6pmapk1p</t>
+  </si>
+  <si>
+    <t>MKK6p+MAPK1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK1pIMPalpha </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MAPK1p+IMPalpha </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNKpIMPalpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JNKp+IMPalpha </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK7pJNK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mkk7p+JNK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK4pJNK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MKK4p+JNK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7pIRF7p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7p+IRF7p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pIRF3p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3p+IRF3p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pIRF7p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3p+IRF7p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pIRF3pIMPalpha4</t>
+  </si>
+  <si>
+    <t>IRF3pIRF3p+IMPalpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7pIRF7pIMPalpha4</t>
+  </si>
+  <si>
+    <t>tf6pelrip1ububIKbKpIKBsNfkb</t>
+  </si>
+  <si>
+    <t>tf6pelrip1ububIKbKp+ IKBSNfkb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6pelrip1ububIKbKpIKBspNfkb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6pelrip1ububIKbKpIKBspNfkb where IKBs is phosphorylated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6pelrip1ubub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6+pel+RIP1ubub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3MKK3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3+MKK3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:submitted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3MKK3p</t>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3MKK4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3+MKK4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3MKK6p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tak1tab1tab2tab3+MKK6p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tttf6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tt+tf6</t>
+  </si>
+  <si>
+    <t>rlps2-tttf6rip1</t>
+  </si>
+  <si>
+    <t>rlps2-tttf6+RIP1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tttf6pelrip1</t>
+  </si>
+  <si>
+    <t>rlps2-tttf6rip1+pel1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tttf6pelrip1ubub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6pelrip1ububtak1tab1tab2tab3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6rip1ubub+tak1tab1tab2tab3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6pelrip1ububtak1tab1tab2tab3IkBk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tf6rip1ububtak1tab1tab2tab3+IkBk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKBspK48ubNfkb</t>
+  </si>
+  <si>
+    <t>IKBspNfkb</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpelptak1tab1tab2tab3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpelp+tak1tab1tab2tab3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelptak1tab1tab2tab3</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpelptak1tab1tab2tab3 where IRK1 is ubiquitinated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelptak1tab1tab2tab3IKbK</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelptak1tab1tab2tab3+IKbK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelptak1tab1tab2tab3IKbKp</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelpIKbK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelpIKbKp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelp+IKbKp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelpIKbKpIKBsNfkb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelpIKbKp+IKBsNfkb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelpIKbKpIKBspNfkb</t>
+  </si>
+  <si>
+    <t>IRK1ubpptf6pubpelpIKbKpIKBsNfkb where IKBs is phosphorylated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tm+IRK4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4IRK1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4+IRK1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rlps-tmIRK4IRK1pp </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4IRK1p where IRK1 is polyphosphorylated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4IRK1pptf6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4IRK1pp+tf6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pp+TF6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6+pel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pelTI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pel +TIFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6k63ubpelTI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpelTI</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel+TIFA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel</t>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where TF6 is polyubiquitineted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpelp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRK1pptf6pubpel where pel is phosphorylated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF7pIRF7p+IMPalpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pIRF7pIMPalpha4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pIRF7p+IMPalpha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pIRF7pISREdnas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pIRF7p+ISREdnas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pIRF3pISREdnas</t>
+  </si>
+  <si>
+    <t>IRF3pIRF3p+ISREdnas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pp65ISREdnas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRF3pp65+IRSEdnas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tt-trf3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tt+traf3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tt-trf3-TBK1-tank-IKKe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tt+traf3+TBK1-tank-Ikke</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tt-trf3-tank63ub-IKKe</t>
+  </si>
+  <si>
+    <t>rlps2-tt-trf3-tank63ub+IKKe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tt-trf3-TBK1-tankk63ub-IKKe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>rlps2 + tram</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,10 +586,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>rlps-tmIRK4IRK1p where IRK1 iis phosphorylated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>TBK1-Tank-IKKe where tank is  ubiquitinated</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -48,10 +594,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tirapp48ub+26S where tirapp48ub where tirapp48ub bound to 26Srs4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NFKB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,10 +629,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tpip2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,101 +661,97 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>IKBs+NFKB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">IRK1pptf6pelTI where TF6 is K63 ubiquitinated </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IKBsp+NFKB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IkBs+Nfkb where IkBs is K48 Lysine ubiquitinated</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LBP+LPS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR4+MD2+LPS+CD14s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps-tmIRK4IRK1p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLR4+MD2+LPS dimer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2 + tram + trif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2 + tirap + myd88</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GO:0046696</t>
+  </si>
+  <si>
+    <t>cslps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000025494</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1lps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000025496</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2lps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO:000025495</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tram</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirappip2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rlps2-tirap+pip2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tirappip2</t>
+  </si>
+  <si>
     <t>tirap+pip2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IKBs+NFKB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">IRK1pptf6pelTI where TF6 is K63 ubiquitinated </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IKBsp+NFKB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IkBs+Nfkb where IkBs is K48 Lysine ubiquitinated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LBP+LPS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR4+MD2+LPS+CD14s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps-tmIRK4IRK1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLR4+MD2+LPS dimer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2 + tram + trif</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2 + tirap + myd88</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO:0046696</t>
-  </si>
-  <si>
-    <t>cslps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000025494</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1lps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000025496</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2lps</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:000025495</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tram</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirappip2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirap+pip2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tirappip2</t>
-  </si>
-  <si>
-    <t>tirap+pip2</t>
   </si>
   <si>
     <t>rlps2-tm</t>
@@ -283,548 +817,6 @@
   </si>
   <si>
     <t>IRK1pptf6pubpelp where IRK1 is ubiquitinated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IKBspK48ubNfkb</t>
-  </si>
-  <si>
-    <t>IKBspNfkb</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpelptak1tab1tab2tab3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpelp+tak1tab1tab2tab3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelptak1tab1tab2tab3</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpelptak1tab1tab2tab3 where IRK1 is ubiquitinated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelptak1tab1tab2tab3IKbK</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelptak1tab1tab2tab3+IKbK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelptak1tab1tab2tab3IKbKp</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelpIKbK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelpIKbKp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelp+IKbKp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelpIKbKpIKBsNfkb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelpIKbKp+IKBsNfkb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelpIKbKpIKBspNfkb</t>
-  </si>
-  <si>
-    <t>IRK1ubpptf6pubpelpIKbKpIKBsNfkb where IKBs is phosphorylated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps-tmIRK4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tm+IRK4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps-tmIRK4IRK1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps-tmIRK4+IRK1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rlps-tmIRK4IRK1pp </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps-tmIRK4IRK1p where IRK1 is polyphosphorylated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps-tmIRK4IRK1pptf6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps-tmIRK4IRK1pp+tf6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pp+TF6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6+pel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pelTI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pel +TIFA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6k63ubpelTI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpelTI</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel+TIFA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel</t>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where TF6 is polyubiquitineted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpelp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRK1pptf6pubpel where pel is phosphorylated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7pIRF7p+IMPalpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pIRF7pIMPalpha4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pIRF7p+IMPalpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pIRF7pISREdnas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pIRF7p+ISREdnas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pIRF3pISREdnas</t>
-  </si>
-  <si>
-    <t>IRF3pIRF3p+ISREdnas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pp65ISREdnas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pp65+IRSEdnas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tt-trf3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tt+traf3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tt-trf3-TBK1-tank-IKKe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tt+traf3+TBK1-tank-Ikke</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tt-trf3-tank63ub-IKKe</t>
-  </si>
-  <si>
-    <t>rlps2-tt-trf3-tank63ub+IKKe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tt-trf3-TBK1-tankk63ub-IKKe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tt-trf3-tank63ub</t>
-  </si>
-  <si>
-    <t>rlps2-tt-trf3+TANKK63ub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1tankk63ubIKKe</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBK1-Tank-IKKe</t>
-  </si>
-  <si>
-    <t>TBK1+tank+IKKe</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3MKK7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3+MKK7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pp65IMPalpha4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pp65+IMPalpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3MKK6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3+MKK6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-  </si>
-  <si>
-    <t>MKK3pmapk1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK3p+MAPK1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK6pmapk1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK6p +MAPK1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK3pmapk1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK3p+MAPK1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK6pmapk1p</t>
-  </si>
-  <si>
-    <t>MKK6p+MAPK1p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPK1pIMPalpha </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPK1p+IMPalpha </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JNKpIMPalpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">JNKp+IMPalpha </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK7pJNK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mkk7p+JNK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK4pJNK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MKK4p+JNK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7pIRF7p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7p+IRF7p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pIRF3p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3p+IRF3p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pIRF7p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3p+IRF7p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF3pIRF3pIMPalpha4</t>
-  </si>
-  <si>
-    <t>IRF3pIRF3p+IMPalpha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IRF7pIRF7pIMPalpha4</t>
-  </si>
-  <si>
-    <t>tf6pelrip1ububIKbKpIKBsNfkb</t>
-  </si>
-  <si>
-    <t>tf6pelrip1ububIKbKp+ IKBSNfkb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6pelrip1ububIKbKpIKBspNfkb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6pelrip1ububIKbKpIKBspNfkb where IKBs is phosphorylated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6pelrip1ubub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6+pel+RIP1ubub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3MKK3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3+MKK3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3MKK3p</t>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3+MKK3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3MKK4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3+MKK4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3MKK6p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tak1tab1tab2tab3+MKK6p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tttf6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tt+tf6</t>
-  </si>
-  <si>
-    <t>rlps2-tttf6rip1</t>
-  </si>
-  <si>
-    <t>rlps2-tttf6+RIP1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tttf6pelrip1</t>
-  </si>
-  <si>
-    <t>rlps2-tttf6rip1+pel1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tttf6pelrip1ubub</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6pelrip1ububtak1tab1tab2tab3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6rip1ubub+tak1tab1tab2tab3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6pelrip1ububtak1tab1tab2tab3IkBk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6rip1ububtak1tab1tab2tab3+IkBk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6pelrip1ububtak1tab1tab2tab3IkBkp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6rip1ububtak1tab1tab2tab3IkBk where IkBk is phosphorylated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tf6pelrip1ububIKbKp</t>
-  </si>
-  <si>
-    <t>tf6pelrip1ubub+IKbK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirap+Myd88s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tram-sarm</t>
-  </si>
-  <si>
-    <t>rlps2-tram+SARM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps-tmIRK4IRKM</t>
-  </si>
-  <si>
-    <t>rlps-tmIRK4+IRKM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tirappSOCS1</t>
-  </si>
-  <si>
-    <t>tirapp+SOCS1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirapp48ubSOCS1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirappSOCS1 where tirapp is 48 ubiquitinated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tirapp48ub26S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirapp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirap where tirap is phosphorylated on Tyr 86 or Tyr 106 or Tyr159</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirappSOCS1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rlps2-tirapp+SOCS1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO:submitted</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -857,18 +849,12 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="43"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -898,7 +884,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -929,9 +915,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1269,11 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69.7109375" defaultRowHeight="13"/>
@@ -1283,1096 +1265,1096 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="11"/>
-      <c r="I2" s="13"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>153</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="6" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="11"/>
-      <c r="I35" s="13"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>142</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>146</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>7</v>
+        <v>149</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>54</v>
+        <v>194</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="D46" s="10"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="11"/>
-      <c r="I46" s="13"/>
+      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="11"/>
-      <c r="I47" s="13"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="11"/>
-      <c r="I48" s="13"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="11"/>
-      <c r="I49" s="13"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>10</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="11"/>
-      <c r="I56" s="13"/>
+      <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="11"/>
-      <c r="I57" s="13"/>
+      <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>204</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>47</v>
+        <v>187</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="11"/>
-      <c r="I60" s="13"/>
+      <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="11"/>
-      <c r="I62" s="13"/>
+      <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D64" s="10"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="11"/>
-      <c r="I64" s="13"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>193</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>194</v>
+        <v>8</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>34</v>
+        <v>174</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="11"/>
-      <c r="I66" s="13"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="6" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="6" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="6" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>175</v>
+        <v>79</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>178</v>
+        <v>81</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>59</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="9" customFormat="1">
       <c r="A80" s="1" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="9" customFormat="1">
       <c r="A81" s="1" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="9" customFormat="1">
       <c r="A82" s="1" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="9" customFormat="1">
       <c r="A83" s="1" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="9" customFormat="1">
       <c r="A84" s="1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="9" customFormat="1">
       <c r="A85" s="1" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="9" customFormat="1">
       <c r="A86" s="1" t="s">
-        <v>188</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>189</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="9" customFormat="1">
       <c r="A87" s="1" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="9" customFormat="1">
       <c r="A88" s="1" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="9" customFormat="1">
       <c r="A89" s="1" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="9" customFormat="1">
       <c r="A90" s="1" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="9" customFormat="1">
       <c r="A91" s="1" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="9" customFormat="1">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="9" customFormat="1">
       <c r="A93" s="1" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>49</v>
+        <v>189</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="1"/>
@@ -2383,57 +2365,33 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="10"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="13"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" ht="16"/>
-    <row r="98" ht="16"/>
-    <row r="99" ht="16"/>
-    <row r="100" ht="16"/>
-    <row r="101" ht="16"/>
+        <v>151</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <autoFilter ref="A1:I101"/>
+  <autoFilter ref="A1:I100"/>
   <sortState ref="A2:I101">
     <sortCondition ref="A3:A101"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
